--- a/hello/PE monthly report 201612.xlsx
+++ b/hello/PE monthly report 201612.xlsx
@@ -13,16 +13,48 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Wu, Owen (Nokia - CN/Chengdu)</author>
+  </authors>
+  <commentList>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Wu, Owen (Nokia - CN/Chengdu):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+第二个位等权重PE</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>统计区间: 2007-01-02 ~ 2016-12-30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="30">
   <si>
     <t>名称</t>
   </si>
@@ -71,12 +103,54 @@
   <si>
     <t>创业板指</t>
   </si>
+  <si>
+    <t>统计区间: 2007-01-06 ~ 2017-01-03</t>
+  </si>
+  <si>
+    <t>统计区间: 2007-01-02 ~ 2016-12-30 --市值加权</t>
+  </si>
+  <si>
+    <t>统计区间: 2007-01-06 ~ 2017-01-03 --市值等权</t>
+  </si>
+  <si>
+    <t>统计区间: 2007-01-20 ~ 2017-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 当前估值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10年分位点%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最小估值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最大估值</t>
+  </si>
+  <si>
+    <t>统计区间: 2007-01-20 ~ 2017-01-16 ~等权重</t>
+  </si>
+  <si>
+    <t>统计区间: 2007-01-27 ~ 2017-01-24</t>
+  </si>
+  <si>
+    <t>中证消费</t>
+  </si>
+  <si>
+    <t>加权</t>
+  </si>
+  <si>
+    <t>等权</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +303,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +497,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -571,9 +664,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -630,6 +726,997 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>红利指数</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>加权</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>等权</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="228914168"/>
+        <c:axId val="229213304"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="228914168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229213304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="229213304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228914168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,57 +1981,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>10.65</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>44.64</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>26.87</v>
       </c>
       <c r="E3" s="1">
@@ -956,18 +2050,27 @@
       <c r="G3">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="4">
+        <v>42738</v>
+      </c>
+      <c r="J3">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>7.23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>13.63</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>8.31</v>
       </c>
       <c r="E4" s="1">
@@ -979,18 +2082,27 @@
       <c r="G4">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="4">
+        <v>42751</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>10.19</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>72.260000000000005</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>39.93</v>
       </c>
       <c r="E5" s="1">
@@ -1002,18 +2114,27 @@
       <c r="G5">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="4">
+        <v>42759</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>7.46</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>35.18</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>16.920000000000002</v>
       </c>
       <c r="E6" s="1">
@@ -1026,17 +2147,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>9.0299999999999994</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>67.89</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>39.25</v>
       </c>
       <c r="E7" s="1">
@@ -1049,17 +2170,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>9.3699999999999992</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>76.27</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>48.36</v>
       </c>
       <c r="E8" s="1">
@@ -1072,17 +2193,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>12.93</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>79.540000000000006</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>46.5</v>
       </c>
       <c r="E9" s="1">
@@ -1095,17 +2216,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>47.3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>79.39</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>65.89</v>
       </c>
       <c r="E10" s="1">
@@ -1118,17 +2239,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>42.35</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>25.66</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>21.97</v>
       </c>
       <c r="E11" s="1">
@@ -1141,8 +2262,1633 @@
         <v>78</v>
       </c>
     </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12.89</v>
+      </c>
+      <c r="C16" s="2">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="D16" s="2">
+        <v>46.08</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F16" s="1">
+        <v>47.33</v>
+      </c>
+      <c r="G16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10.87</v>
+      </c>
+      <c r="C17" s="2">
+        <v>40.96</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22.22</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.51</v>
+      </c>
+      <c r="F17" s="1">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="D18" s="2">
+        <v>28.08</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F18" s="1">
+        <v>33.72</v>
+      </c>
+      <c r="G18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="D19" s="2">
+        <v>51.82</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="F19" s="1">
+        <v>29.97</v>
+      </c>
+      <c r="G19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>21.18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="D20" s="2">
+        <v>53.53</v>
+      </c>
+      <c r="E20" s="1">
+        <v>11.19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>53.65</v>
+      </c>
+      <c r="G20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>37.47</v>
+      </c>
+      <c r="C21" s="2">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="D21" s="2">
+        <v>60.49</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15.47</v>
+      </c>
+      <c r="F21" s="1">
+        <v>64.12</v>
+      </c>
+      <c r="G21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>51.83</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43.04</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43.49</v>
+      </c>
+      <c r="E22" s="1">
+        <v>27.29</v>
+      </c>
+      <c r="F22" s="1">
+        <v>111.6</v>
+      </c>
+      <c r="G22">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>10.19</v>
+      </c>
+      <c r="C27">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="D27">
+        <v>40.08</v>
+      </c>
+      <c r="E27">
+        <v>7.02</v>
+      </c>
+      <c r="F27">
+        <v>46.45</v>
+      </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>12.89</v>
+      </c>
+      <c r="C28">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="D28">
+        <v>46.08</v>
+      </c>
+      <c r="E28">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F28">
+        <v>47.33</v>
+      </c>
+      <c r="G28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>7.47</v>
+      </c>
+      <c r="C29">
+        <v>35.57</v>
+      </c>
+      <c r="D29">
+        <v>17.16</v>
+      </c>
+      <c r="E29">
+        <v>5.8</v>
+      </c>
+      <c r="F29">
+        <v>44.2</v>
+      </c>
+      <c r="G29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>10.87</v>
+      </c>
+      <c r="C30">
+        <v>40.96</v>
+      </c>
+      <c r="D30">
+        <v>22.22</v>
+      </c>
+      <c r="E30">
+        <v>8.51</v>
+      </c>
+      <c r="F30">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C31">
+        <v>68.75</v>
+      </c>
+      <c r="D31">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="E31">
+        <v>6.09</v>
+      </c>
+      <c r="F31">
+        <v>80.09</v>
+      </c>
+      <c r="G31">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>13.4</v>
+      </c>
+      <c r="C32">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="D32">
+        <v>28.08</v>
+      </c>
+      <c r="E32">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F32">
+        <v>33.72</v>
+      </c>
+      <c r="G32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="C33">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="D33">
+        <v>48.68</v>
+      </c>
+      <c r="E33">
+        <v>6.14</v>
+      </c>
+      <c r="F33">
+        <v>29.76</v>
+      </c>
+      <c r="G33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="D34">
+        <v>51.82</v>
+      </c>
+      <c r="E34">
+        <v>7.16</v>
+      </c>
+      <c r="F34">
+        <v>29.97</v>
+      </c>
+      <c r="G34">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>12.94</v>
+      </c>
+      <c r="C35">
+        <v>79.62</v>
+      </c>
+      <c r="D35">
+        <v>46.74</v>
+      </c>
+      <c r="E35">
+        <v>8.1</v>
+      </c>
+      <c r="F35">
+        <v>47.2</v>
+      </c>
+      <c r="G35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>21.18</v>
+      </c>
+      <c r="C36">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="D36">
+        <v>53.53</v>
+      </c>
+      <c r="E36">
+        <v>11.19</v>
+      </c>
+      <c r="F36">
+        <v>53.65</v>
+      </c>
+      <c r="G36">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>47.35</v>
+      </c>
+      <c r="C37">
+        <v>79.25</v>
+      </c>
+      <c r="D37">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E37">
+        <v>17.23</v>
+      </c>
+      <c r="F37">
+        <v>96.54</v>
+      </c>
+      <c r="G37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>37.47</v>
+      </c>
+      <c r="C38">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="D38">
+        <v>60.49</v>
+      </c>
+      <c r="E38">
+        <v>15.47</v>
+      </c>
+      <c r="F38">
+        <v>64.12</v>
+      </c>
+      <c r="G38">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>42.63</v>
+      </c>
+      <c r="C39">
+        <v>25.62</v>
+      </c>
+      <c r="D39">
+        <v>22.45</v>
+      </c>
+      <c r="E39">
+        <v>29.44</v>
+      </c>
+      <c r="F39">
+        <v>123.17</v>
+      </c>
+      <c r="G39">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>51.83</v>
+      </c>
+      <c r="C40">
+        <v>43.04</v>
+      </c>
+      <c r="D40">
+        <v>43.49</v>
+      </c>
+      <c r="E40">
+        <v>27.29</v>
+      </c>
+      <c r="F40">
+        <v>111.6</v>
+      </c>
+      <c r="G40">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1">
+      <c r="A45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>11.21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="D47" s="2">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>7.61</v>
+      </c>
+      <c r="F47">
+        <v>24.26</v>
+      </c>
+      <c r="G47">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>7.61</v>
+      </c>
+      <c r="C48" s="2">
+        <v>26.67</v>
+      </c>
+      <c r="D48" s="2">
+        <v>12.03</v>
+      </c>
+      <c r="E48">
+        <v>5.8</v>
+      </c>
+      <c r="F48">
+        <v>36.17</v>
+      </c>
+      <c r="G48">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>10.58</v>
+      </c>
+      <c r="C49" s="2">
+        <v>84.49</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45.38</v>
+      </c>
+      <c r="E49">
+        <v>7.02</v>
+      </c>
+      <c r="F49">
+        <v>46.45</v>
+      </c>
+      <c r="G49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>7.73</v>
+      </c>
+      <c r="C50" s="2">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="D50" s="2">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="E50">
+        <v>5.8</v>
+      </c>
+      <c r="F50">
+        <v>44.2</v>
+      </c>
+      <c r="G50">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>9.34</v>
+      </c>
+      <c r="C51" s="2">
+        <v>81.99</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45.38</v>
+      </c>
+      <c r="E51">
+        <v>6.09</v>
+      </c>
+      <c r="F51">
+        <v>80.09</v>
+      </c>
+      <c r="G51">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>9.73</v>
+      </c>
+      <c r="C52" s="2">
+        <v>88.19</v>
+      </c>
+      <c r="D52" s="2">
+        <v>59.09</v>
+      </c>
+      <c r="E52">
+        <v>6.14</v>
+      </c>
+      <c r="F52">
+        <v>29.76</v>
+      </c>
+      <c r="G52">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>13.18</v>
+      </c>
+      <c r="C53" s="2">
+        <v>82.88</v>
+      </c>
+      <c r="D53" s="2">
+        <v>49.01</v>
+      </c>
+      <c r="E53">
+        <v>8.1</v>
+      </c>
+      <c r="F53">
+        <v>47.2</v>
+      </c>
+      <c r="G53">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>45.74</v>
+      </c>
+      <c r="C54" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D54" s="2">
+        <v>61.53</v>
+      </c>
+      <c r="E54">
+        <v>17.23</v>
+      </c>
+      <c r="F54">
+        <v>96.54</v>
+      </c>
+      <c r="G54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>39.61</v>
+      </c>
+      <c r="C55" s="2">
+        <v>22.14</v>
+      </c>
+      <c r="D55" s="2">
+        <v>17.09</v>
+      </c>
+      <c r="E55">
+        <v>29.44</v>
+      </c>
+      <c r="F55">
+        <v>123.17</v>
+      </c>
+      <c r="G55">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>13.23</v>
+      </c>
+      <c r="C59">
+        <v>83.07</v>
+      </c>
+      <c r="D59">
+        <v>49.8</v>
+      </c>
+      <c r="E59">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F59">
+        <v>47.33</v>
+      </c>
+      <c r="G59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>11.19</v>
+      </c>
+      <c r="C60">
+        <v>45.03</v>
+      </c>
+      <c r="D60">
+        <v>25.13</v>
+      </c>
+      <c r="E60">
+        <v>8.51</v>
+      </c>
+      <c r="F60">
+        <v>39</v>
+      </c>
+      <c r="G60">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>13.59</v>
+      </c>
+      <c r="C61">
+        <v>41.46</v>
+      </c>
+      <c r="D61">
+        <v>31.24</v>
+      </c>
+      <c r="E61">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F61">
+        <v>33.72</v>
+      </c>
+      <c r="G61">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>11.33</v>
+      </c>
+      <c r="C62">
+        <v>83.56</v>
+      </c>
+      <c r="D62">
+        <v>56.8</v>
+      </c>
+      <c r="E62">
+        <v>7.16</v>
+      </c>
+      <c r="F62">
+        <v>29.97</v>
+      </c>
+      <c r="G62">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>21.26</v>
+      </c>
+      <c r="C63">
+        <v>80.27</v>
+      </c>
+      <c r="D63">
+        <v>54.25</v>
+      </c>
+      <c r="E63">
+        <v>11.19</v>
+      </c>
+      <c r="F63">
+        <v>53.65</v>
+      </c>
+      <c r="G63">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>36.26</v>
+      </c>
+      <c r="C64">
+        <v>75.36</v>
+      </c>
+      <c r="D64">
+        <v>55.91</v>
+      </c>
+      <c r="E64">
+        <v>15.47</v>
+      </c>
+      <c r="F64">
+        <v>64.12</v>
+      </c>
+      <c r="G64">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>48.03</v>
+      </c>
+      <c r="C65">
+        <v>33.71</v>
+      </c>
+      <c r="D65">
+        <v>34.44</v>
+      </c>
+      <c r="E65">
+        <v>27.29</v>
+      </c>
+      <c r="F65">
+        <v>111.6</v>
+      </c>
+      <c r="G65">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="3" customFormat="1">
+      <c r="A68" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="C70" s="2">
+        <v>77.41</v>
+      </c>
+      <c r="D70" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="E70">
+        <v>7.61</v>
+      </c>
+      <c r="F70">
+        <v>24.26</v>
+      </c>
+      <c r="G70">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>7.65</v>
+      </c>
+      <c r="C71" s="2">
+        <v>29.09</v>
+      </c>
+      <c r="D71" s="2">
+        <v>12.78</v>
+      </c>
+      <c r="E71">
+        <v>5.8</v>
+      </c>
+      <c r="F71">
+        <v>36.17</v>
+      </c>
+      <c r="G71">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1">
+        <v>10.62</v>
+      </c>
+      <c r="C72" s="2">
+        <v>85.31</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45.86</v>
+      </c>
+      <c r="E72">
+        <v>7.02</v>
+      </c>
+      <c r="F72">
+        <v>46.45</v>
+      </c>
+      <c r="G72">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="C73" s="2">
+        <v>39.93</v>
+      </c>
+      <c r="D73" s="2">
+        <v>19.88</v>
+      </c>
+      <c r="E73">
+        <v>5.8</v>
+      </c>
+      <c r="F73">
+        <v>44.2</v>
+      </c>
+      <c r="G73">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="C74" s="2">
+        <v>82.96</v>
+      </c>
+      <c r="D74" s="2">
+        <v>46.39</v>
+      </c>
+      <c r="E74">
+        <v>6.09</v>
+      </c>
+      <c r="F74">
+        <v>80.09</v>
+      </c>
+      <c r="G74">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9.77</v>
+      </c>
+      <c r="C75" s="2">
+        <v>89.31</v>
+      </c>
+      <c r="D75" s="2">
+        <v>60.02</v>
+      </c>
+      <c r="E75">
+        <v>6.14</v>
+      </c>
+      <c r="F75">
+        <v>29.76</v>
+      </c>
+      <c r="G75">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1">
+        <v>13.31</v>
+      </c>
+      <c r="C76" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="D76" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="E76">
+        <v>8.1</v>
+      </c>
+      <c r="F76">
+        <v>47.2</v>
+      </c>
+      <c r="G76">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="C77" s="2">
+        <v>77.42</v>
+      </c>
+      <c r="D77" s="2">
+        <v>64.53</v>
+      </c>
+      <c r="E77">
+        <v>17.23</v>
+      </c>
+      <c r="F77">
+        <v>96.54</v>
+      </c>
+      <c r="G77">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="1">
+        <v>40.96</v>
+      </c>
+      <c r="C78" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="D78" s="2">
+        <v>19.23</v>
+      </c>
+      <c r="E78">
+        <v>29.44</v>
+      </c>
+      <c r="F78">
+        <v>123.17</v>
+      </c>
+      <c r="G78">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="1">
+        <v>25.24</v>
+      </c>
+      <c r="C79" s="2">
+        <v>57.77</v>
+      </c>
+      <c r="D79" s="2">
+        <v>38.17</v>
+      </c>
+      <c r="E79">
+        <v>17.29</v>
+      </c>
+      <c r="F79">
+        <v>51.65</v>
+      </c>
+      <c r="G79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="C83" s="2">
+        <v>83.62</v>
+      </c>
+      <c r="D83" s="2">
+        <v>50.35</v>
+      </c>
+      <c r="E83">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F83">
+        <v>47.33</v>
+      </c>
+      <c r="G83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1">
+        <v>11.28</v>
+      </c>
+      <c r="C84" s="2">
+        <v>46.25</v>
+      </c>
+      <c r="D84" s="2">
+        <v>26</v>
+      </c>
+      <c r="E84">
+        <v>8.51</v>
+      </c>
+      <c r="F84">
+        <v>39</v>
+      </c>
+      <c r="G84">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44.84</v>
+      </c>
+      <c r="D85" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="E85">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F85">
+        <v>33.72</v>
+      </c>
+      <c r="G85">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1">
+        <v>11.42</v>
+      </c>
+      <c r="C86" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>58.29</v>
+      </c>
+      <c r="E86">
+        <v>7.16</v>
+      </c>
+      <c r="F86">
+        <v>29.97</v>
+      </c>
+      <c r="G86">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="C87" s="2">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="D87" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="E87">
+        <v>11.19</v>
+      </c>
+      <c r="F87">
+        <v>53.65</v>
+      </c>
+      <c r="G87">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="1">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="C88" s="2">
+        <v>78.64</v>
+      </c>
+      <c r="D88" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="E88">
+        <v>15.47</v>
+      </c>
+      <c r="F88">
+        <v>64.12</v>
+      </c>
+      <c r="G88">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="1">
+        <v>49.49</v>
+      </c>
+      <c r="C89" s="2">
+        <v>36.89</v>
+      </c>
+      <c r="D89" s="2">
+        <v>37.56</v>
+      </c>
+      <c r="E89">
+        <v>27.29</v>
+      </c>
+      <c r="F89">
+        <v>111.6</v>
+      </c>
+      <c r="G89">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="C90" s="2">
+        <v>39.44</v>
+      </c>
+      <c r="D90" s="2">
+        <v>24.53</v>
+      </c>
+      <c r="E90">
+        <v>22.56</v>
+      </c>
+      <c r="F90">
+        <v>64.87</v>
+      </c>
+      <c r="G90">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B22">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D22">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C22">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:B55">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C55">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D55">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B66">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C66">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:D66">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:B79">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C79">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70:D79">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:B90">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1154,7 +3900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11">
+  <conditionalFormatting sqref="C83:C90">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1166,7 +3912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11">
+  <conditionalFormatting sqref="D83:D90">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1180,5 +3926,753 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>10.62</v>
+      </c>
+      <c r="C3">
+        <v>85.31</v>
+      </c>
+      <c r="D3">
+        <v>45.86</v>
+      </c>
+      <c r="E3">
+        <v>7.02</v>
+      </c>
+      <c r="F3">
+        <v>46.45</v>
+      </c>
+      <c r="G3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>13.32</v>
+      </c>
+      <c r="C4">
+        <v>83.62</v>
+      </c>
+      <c r="D4">
+        <v>50.35</v>
+      </c>
+      <c r="E4">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F4">
+        <v>47.33</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>7.76</v>
+      </c>
+      <c r="C5">
+        <v>39.93</v>
+      </c>
+      <c r="D5">
+        <v>19.88</v>
+      </c>
+      <c r="E5">
+        <v>5.8</v>
+      </c>
+      <c r="F5">
+        <v>44.2</v>
+      </c>
+      <c r="G5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>11.28</v>
+      </c>
+      <c r="C6">
+        <v>46.25</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>8.51</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>9.39</v>
+      </c>
+      <c r="C7">
+        <v>82.96</v>
+      </c>
+      <c r="D7">
+        <v>46.39</v>
+      </c>
+      <c r="E7">
+        <v>6.09</v>
+      </c>
+      <c r="F7">
+        <v>80.09</v>
+      </c>
+      <c r="G7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>13.8</v>
+      </c>
+      <c r="C8">
+        <v>44.84</v>
+      </c>
+      <c r="D8">
+        <v>34.4</v>
+      </c>
+      <c r="E8">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F8">
+        <v>33.72</v>
+      </c>
+      <c r="G8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>9.77</v>
+      </c>
+      <c r="C9">
+        <v>89.31</v>
+      </c>
+      <c r="D9">
+        <v>60.02</v>
+      </c>
+      <c r="E9">
+        <v>6.14</v>
+      </c>
+      <c r="F9">
+        <v>29.76</v>
+      </c>
+      <c r="G9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>11.42</v>
+      </c>
+      <c r="C10">
+        <v>85.1</v>
+      </c>
+      <c r="D10">
+        <v>58.29</v>
+      </c>
+      <c r="E10">
+        <v>7.16</v>
+      </c>
+      <c r="F10">
+        <v>29.97</v>
+      </c>
+      <c r="G10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>13.31</v>
+      </c>
+      <c r="C11">
+        <v>84.6</v>
+      </c>
+      <c r="D11">
+        <v>50.1</v>
+      </c>
+      <c r="E11">
+        <v>8.1</v>
+      </c>
+      <c r="F11">
+        <v>47.2</v>
+      </c>
+      <c r="G11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>21.57</v>
+      </c>
+      <c r="C12">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="D12">
+        <v>56.9</v>
+      </c>
+      <c r="E12">
+        <v>11.19</v>
+      </c>
+      <c r="F12">
+        <v>53.65</v>
+      </c>
+      <c r="G12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>46.8</v>
+      </c>
+      <c r="C13">
+        <v>77.42</v>
+      </c>
+      <c r="D13">
+        <v>64.53</v>
+      </c>
+      <c r="E13">
+        <v>17.23</v>
+      </c>
+      <c r="F13">
+        <v>96.54</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="C14">
+        <v>78.64</v>
+      </c>
+      <c r="D14">
+        <v>58.8</v>
+      </c>
+      <c r="E14">
+        <v>15.47</v>
+      </c>
+      <c r="F14">
+        <v>64.12</v>
+      </c>
+      <c r="G14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>40.96</v>
+      </c>
+      <c r="C15">
+        <v>23.7</v>
+      </c>
+      <c r="D15">
+        <v>19.23</v>
+      </c>
+      <c r="E15">
+        <v>29.44</v>
+      </c>
+      <c r="F15">
+        <v>123.17</v>
+      </c>
+      <c r="G15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>49.49</v>
+      </c>
+      <c r="C16">
+        <v>36.89</v>
+      </c>
+      <c r="D16">
+        <v>37.56</v>
+      </c>
+      <c r="E16">
+        <v>27.29</v>
+      </c>
+      <c r="F16">
+        <v>111.6</v>
+      </c>
+      <c r="G16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>25.24</v>
+      </c>
+      <c r="C17">
+        <v>57.77</v>
+      </c>
+      <c r="D17">
+        <v>38.17</v>
+      </c>
+      <c r="E17">
+        <v>17.29</v>
+      </c>
+      <c r="F17">
+        <v>51.65</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>27.5</v>
+      </c>
+      <c r="C18">
+        <v>39.44</v>
+      </c>
+      <c r="D18">
+        <v>24.53</v>
+      </c>
+      <c r="E18">
+        <v>22.56</v>
+      </c>
+      <c r="F18">
+        <v>64.87</v>
+      </c>
+      <c r="G18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>11.3</v>
+      </c>
+      <c r="C19">
+        <v>77.41</v>
+      </c>
+      <c r="D19">
+        <v>42.9</v>
+      </c>
+      <c r="E19">
+        <v>7.61</v>
+      </c>
+      <c r="F19">
+        <v>24.26</v>
+      </c>
+      <c r="G19">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>7.65</v>
+      </c>
+      <c r="C20">
+        <v>29.09</v>
+      </c>
+      <c r="D20">
+        <v>12.78</v>
+      </c>
+      <c r="E20">
+        <v>5.8</v>
+      </c>
+      <c r="F20">
+        <v>36.17</v>
+      </c>
+      <c r="G20">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>11.3</v>
+      </c>
+      <c r="C25">
+        <v>77.41</v>
+      </c>
+      <c r="D25">
+        <v>42.9</v>
+      </c>
+      <c r="E25">
+        <v>7.61</v>
+      </c>
+      <c r="F25">
+        <v>24.26</v>
+      </c>
+      <c r="G25">
+        <v>132</v>
+      </c>
+      <c r="H25" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>7.65</v>
+      </c>
+      <c r="C26">
+        <v>29.09</v>
+      </c>
+      <c r="D26">
+        <v>12.78</v>
+      </c>
+      <c r="E26">
+        <v>5.8</v>
+      </c>
+      <c r="F26">
+        <v>36.17</v>
+      </c>
+      <c r="G26">
+        <v>132</v>
+      </c>
+      <c r="H26" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>10.62</v>
+      </c>
+      <c r="C27">
+        <v>85.31</v>
+      </c>
+      <c r="D27">
+        <v>45.86</v>
+      </c>
+      <c r="E27">
+        <v>7.02</v>
+      </c>
+      <c r="F27">
+        <v>46.45</v>
+      </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+      <c r="H27" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>7.76</v>
+      </c>
+      <c r="C28">
+        <v>39.93</v>
+      </c>
+      <c r="D28">
+        <v>19.88</v>
+      </c>
+      <c r="E28">
+        <v>5.8</v>
+      </c>
+      <c r="F28">
+        <v>44.2</v>
+      </c>
+      <c r="G28">
+        <v>120</v>
+      </c>
+      <c r="H28" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>9.39</v>
+      </c>
+      <c r="C29">
+        <v>82.96</v>
+      </c>
+      <c r="D29">
+        <v>46.39</v>
+      </c>
+      <c r="E29">
+        <v>6.09</v>
+      </c>
+      <c r="F29">
+        <v>80.09</v>
+      </c>
+      <c r="G29">
+        <v>104</v>
+      </c>
+      <c r="H29" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>9.77</v>
+      </c>
+      <c r="C30">
+        <v>89.31</v>
+      </c>
+      <c r="D30">
+        <v>60.02</v>
+      </c>
+      <c r="E30">
+        <v>6.14</v>
+      </c>
+      <c r="F30">
+        <v>29.76</v>
+      </c>
+      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="H30" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>13.31</v>
+      </c>
+      <c r="C31">
+        <v>84.6</v>
+      </c>
+      <c r="D31">
+        <v>50.1</v>
+      </c>
+      <c r="E31">
+        <v>8.1</v>
+      </c>
+      <c r="F31">
+        <v>47.2</v>
+      </c>
+      <c r="G31">
+        <v>120</v>
+      </c>
+      <c r="H31" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>46.8</v>
+      </c>
+      <c r="C32">
+        <v>77.42</v>
+      </c>
+      <c r="D32">
+        <v>64.53</v>
+      </c>
+      <c r="E32">
+        <v>17.23</v>
+      </c>
+      <c r="F32">
+        <v>96.54</v>
+      </c>
+      <c r="G32">
+        <v>120</v>
+      </c>
+      <c r="H32" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>40.96</v>
+      </c>
+      <c r="C33">
+        <v>23.7</v>
+      </c>
+      <c r="D33">
+        <v>19.23</v>
+      </c>
+      <c r="E33">
+        <v>29.44</v>
+      </c>
+      <c r="F33">
+        <v>123.17</v>
+      </c>
+      <c r="G33">
+        <v>79</v>
+      </c>
+      <c r="H33" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>25.24</v>
+      </c>
+      <c r="C34">
+        <v>57.77</v>
+      </c>
+      <c r="D34">
+        <v>38.17</v>
+      </c>
+      <c r="E34">
+        <v>17.29</v>
+      </c>
+      <c r="F34">
+        <v>51.65</v>
+      </c>
+      <c r="G34">
+        <v>90</v>
+      </c>
+      <c r="H34" s="4">
+        <v>42758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>